--- a/饿了么后台管理系统进度把控表.xlsx
+++ b/饿了么后台管理系统进度把控表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neuedu_2017\Lihui\ele\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -30,9 +35,6 @@
     <t>研发周期</t>
   </si>
   <si>
-    <t>2017/8/1 -- 2017/8/14</t>
-  </si>
-  <si>
     <t>研发人员</t>
   </si>
   <si>
@@ -136,19 +138,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>首页界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁燕虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁燕虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李靖仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梁淑怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易佳莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页界面</t>
+    <t>梁燕虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,22 +166,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梁燕虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁燕虹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁燕虹</t>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/8/1 -- 2017/8/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +224,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,18 +302,15 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -332,10 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -347,6 +344,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,112 +656,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -782,41 +782,41 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>42948</v>
@@ -825,143 +825,187 @@
         <v>42948</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3">
         <v>42951</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="4">
+        <v>42949</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>42951</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
         <v>42951</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>42951</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
-        <v>42954</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>42953</v>
+      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>42955</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>42953</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3">
-        <v>42955</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>42953</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
-        <v>42957</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>42953</v>
+      </c>
+      <c r="D22" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3">
-        <v>42957</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>42954</v>
+      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -969,7 +1013,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -977,7 +1021,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
@@ -985,7 +1029,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
@@ -993,7 +1037,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
@@ -1001,7 +1045,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
@@ -1009,7 +1053,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
@@ -1017,7 +1061,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
@@ -1025,7 +1069,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -1033,7 +1077,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
@@ -1041,7 +1085,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>

--- a/饿了么后台管理系统进度把控表.xlsx
+++ b/饿了么后台管理系统进度把控表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\1ps\文档示例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neuedu_2017\Lihui\ele\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包屑导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,9 +984,15 @@
       <c r="C22" s="3">
         <v>42957</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="4">
+        <v>42953</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1025,12 +1035,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42957</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42953</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
